--- a/docs/mi_dev/to_table.xlsx
+++ b/docs/mi_dev/to_table.xlsx
@@ -16,89 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
   <si>
     <t>{</t>
   </si>
   <si>
-    <t>virtual void allined(int botID, int amount) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void blindsRaised(int newSmallBlind, int newBigBlind) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void called(int botID, int amount) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void checked(int botID) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void flop() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void folded(int botID) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void gameWinner(int botID) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void leftGame(int botID) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void listen(int botID, Comment comment) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void preflop() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void leave() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void raised(int botID, int amount) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void rebuyOccurred(int botID, int amount) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void rebuyDeadlineReached() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void rebuyOrLeave() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void river() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void roundEnded() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void roundStarted(int round) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void roundWinners(int numOfWinners, const int* winners) = 0;</t>
-  </si>
-  <si>
-    <t>virtual void showdown() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void step() = 0;</t>
-  </si>
-  <si>
-    <t>virtual void turn() = 0;</t>
-  </si>
-  <si>
-    <t>// botmanager</t>
-  </si>
-  <si>
     <t>Card getHand(int cardIndex) const;</t>
   </si>
   <si>
     <t>void setEmotion(Emotion emotion);</t>
   </si>
   <si>
-    <t>// bot</t>
-  </si>
-  <si>
     <t>// other bot</t>
   </si>
   <si>
@@ -342,234 +270,6 @@
     <t>std::string getName()</t>
   </si>
   <si>
-    <t>int getReservedCredit() const = 0;</t>
-  </si>
-  <si>
-    <t>int getNumOfRebuys() const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotID() const = 0;</t>
-  </si>
-  <si>
-    <t>std::string getName() const = 0;</t>
-  </si>
-  <si>
-    <t>BotLanguage getLang() const = 0;</t>
-  </si>
-  <si>
-    <t>Emotion getBotEmotion(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>std::string getBotName(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>bool isBotDealer(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotChips(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotPot(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>bool isBotHandRevealed(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotLang(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>bool isBotInGame(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>bool isBotInRound(bool botID) const = 0;</t>
-  </si>
-  <si>
-    <t>Card lookAtBotHand(int botID, int cardIndex) const = 0;</t>
-  </si>
-  <si>
-    <t>bool canTalk() const = 0;</t>
-  </si>
-  <si>
-    <t>bool canStep() const = 0;</t>
-  </si>
-  <si>
-    <t>bool allin() = 0;</t>
-  </si>
-  <si>
-    <t>bool call() = 0;</t>
-  </si>
-  <si>
-    <t>bool canAllin() const = 0;</t>
-  </si>
-  <si>
-    <t>bool canCall() const = 0;</t>
-  </si>
-  <si>
-    <t>bool canCheck() const = 0;</t>
-  </si>
-  <si>
-    <t>bool canFold() const = 0;</t>
-  </si>
-  <si>
-    <t>bool canRaise(int raiseAmount) const = 0;</t>
-  </si>
-  <si>
-    <t>bool check() = 0;</t>
-  </si>
-  <si>
-    <t>bool fold() = 0;</t>
-  </si>
-  <si>
-    <t>bool raise(int raiseAmount) = 0;</t>
-  </si>
-  <si>
-    <t>bool canRebuy(int rebuyAmount) const = 0;</t>
-  </si>
-  <si>
-    <t>bool rebuy(int rebuyAmount) = 0;</t>
-  </si>
-  <si>
-    <t>bool talk(Comment comment) = 0;</t>
-  </si>
-  <si>
-    <t>void quit() = 0;</t>
-  </si>
-  <si>
-    <t>int getNumOfBots(bool onlyInGame = false, bool onlyInRound = false) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotIDByIndex(int index) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotIndexByID(int botID) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotIDToTheRight(int nth = 1, bool onlyInGame = false, bool onlyInRound = false) const = 0;</t>
-  </si>
-  <si>
-    <t>int getBotIDToTheLeft(int nth = 1, bool onlyInGame = false, bool onlyInRound = false) const = 0;</t>
-  </si>
-  <si>
-    <t>int getCallAmount() const = 0;</t>
-  </si>
-  <si>
-    <t>int getMinRaise() const = 0;</t>
-  </si>
-  <si>
-    <t>int getBigBlindAtRound(int round = -1) const = 0; // -1 means current round</t>
-  </si>
-  <si>
-    <t>int getBlindShiftDeadline(int shiftDeadlineIndex) const = 0;</t>
-  </si>
-  <si>
-    <t>int getNextBlindShiftDeadline() const = 0;</t>
-  </si>
-  <si>
-    <t>int getSmallBlindAtRound(int round = -1) const = 0; // -1 means current round</t>
-  </si>
-  <si>
-    <t>int getCurrentRound() const = 0;</t>
-  </si>
-  <si>
-    <t>HandRank getHandRank() const = 0;</t>
-  </si>
-  <si>
-    <t>int getTableNumOfCards() const = 0;</t>
-  </si>
-  <si>
-    <t>Card getTableCard(int cardIndex) const = 0;</t>
-  </si>
-  <si>
-    <t>int getPotSum() const = 0;</t>
-  </si>
-  <si>
-    <t>int getBigBlind(int blindIndex) const = 0;</t>
-  </si>
-  <si>
-    <t>int getRebuyDeadline() const = 0;</t>
-  </si>
-  <si>
-    <t>int getSmallBlind(int blindIndex) const = 0;</t>
-  </si>
-  <si>
-    <t>int getAllowedBotCalcTime() const = 0;</t>
-  </si>
-  <si>
-    <t>int getStartingChips() const = 0;</t>
-  </si>
-  <si>
-    <t>int getNumOfBlinds() const = 0;</t>
-  </si>
-  <si>
-    <t>int getNumOfRebuysAllowed() const = 0;</t>
-  </si>
-  <si>
-    <t>bool isTalkAllowed() const = 0;</t>
-  </si>
-  <si>
-    <t>bool isEmotionAllowed() const = 0;</t>
-  </si>
-  <si>
-    <t>bool isBotKnowledgeUseAllowed() const = 0;</t>
-  </si>
-  <si>
-    <t>bool getKnowledgeTableData(int&amp; val, int tableID, int row, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>bool getKnowledgeTableData(bool&amp; val, int tableID, int row, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>bool getKnowledgeTableData(char&amp; val, int tableID, int row, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>bool getKnowledgeTableData(std::string&amp; val, int tableID, int row, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>bool getKnowledgeTableData(float&amp; val, int tableID, int row, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(int val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(bool val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(char val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(const char* val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(std::string val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>bool setKnowledgeTableData(float val, int tableID, int row, int col) = 0;</t>
-  </si>
-  <si>
-    <t>KnowledgeDataType getKnowledgeTableDataType(int tableID, int col) const = 0;</t>
-  </si>
-  <si>
-    <t>int addKnowledgeTableRow(int tableID) = 0;</t>
-  </si>
-  <si>
-    <t>int createKnowledgeTable(int numOfCols, std::list&lt;KnowledgeDataType&gt; colTypes) = 0;</t>
-  </si>
-  <si>
-    <t>int getKnowledgeTableNumOfCols(int tableID) const = 0;</t>
-  </si>
-  <si>
-    <t>int getKnowledgeTableNumOfRows(int tableID) const = 0;</t>
-  </si>
-  <si>
-    <t>bool removeKnowledgeTable(int tableID) = 0;</t>
-  </si>
-  <si>
-    <t>bool removeKnowledgeTableRow(int tableID, int row) = 0;</t>
-  </si>
-  <si>
-    <t>bool isTableLoaded(int tableID) const = 0;</t>
-  </si>
-  <si>
     <t>Metódus</t>
   </si>
   <si>
@@ -649,6 +349,498 @@
   </si>
   <si>
     <t>Jelzi, hogy az aktuális kör végetért.</t>
+  </si>
+  <si>
+    <t>Irrelevant</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>BOTCOMMUNICATOR</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Saját adatok lekérdezése</t>
+  </si>
+  <si>
+    <t>int getChips() const;</t>
+  </si>
+  <si>
+    <t>int getPot() const;</t>
+  </si>
+  <si>
+    <t>Emotion getEmotion() const;</t>
+  </si>
+  <si>
+    <t>bool isDealer() const;</t>
+  </si>
+  <si>
+    <t>bool isHandRevealed() const;</t>
+  </si>
+  <si>
+    <t>bool isInGame() const;</t>
+  </si>
+  <si>
+    <t>bool isInRound() const;</t>
+  </si>
+  <si>
+    <t>Card lookAtHand(int cardIndex) const;</t>
+  </si>
+  <si>
+    <t>int getReservedCredit() const;</t>
+  </si>
+  <si>
+    <t>int getNumOfRebuys() const;</t>
+  </si>
+  <si>
+    <t>Visszatér a kézben lévő egyik 'cardIndex (0 vagy 1)' indexű kártyával.</t>
+  </si>
+  <si>
+    <t>Beállítja a bot aktuális érzelmi állapotát.</t>
+  </si>
+  <si>
+    <t>Visszatér a rebuy-hoz felhasználható plusz creditekkel. Ennyi zsetonnal vásárolhatod magad vissza maximum.</t>
+  </si>
+  <si>
+    <t>Visszatér az aktuális játékban a bot által eszközölt visszavásárlások számával.</t>
+  </si>
+  <si>
+    <t>Visszatér a kézben lévő zsetonok összértékével.</t>
+  </si>
+  <si>
+    <t>Visszatér a pot-ba tett zsetonok összértékével.</t>
+  </si>
+  <si>
+    <t>Visszatér a bot aktuális érzelmi állapotával.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot dealer-e vagy nem.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a kézben lévő lapok fel vannak e fordítva.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot játékban van-e még.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot menetben van-e még (nem foldolt).</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot aktuális érzelmi állapotát.</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot nevét.</t>
+  </si>
+  <si>
+    <t>Lekérdezi, hogy a 'botID' azonosítójú bot dealer-e.</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot potjának összértékét.</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot kézben lévő zsetonjának összértékét.</t>
+  </si>
+  <si>
+    <t>Lekérdezi, hogy a 'botID' azonosítójú bot kártyái fel vannak-e fordítva (megtekinthetők-e).</t>
+  </si>
+  <si>
+    <t>Lekérdezi, hogy a 'botID' azonosítójú bot milyen nyelven íródott.</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot játékban van-e.</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot menetben van-e (nem-e foldolt).</t>
+  </si>
+  <si>
+    <t>Lekérdezi a 'botID' azonosítójú bot 'cardIndex(0 vagy 1)' indexű kártyáját. Ha nincs felfordítva a lap, ún. 'NullCard'-dal tér vissza.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot beszélhet-e.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot léphet-e.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot all in-olhat-e.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot képes-e tartani a tétet.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a botnak lehetőségében áll-e csekkelni.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot bedophatja-e a lapjait.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot emelhet-e 'raiseAmount' összeggel.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a bot visszavásárolhatja-e magát rebuyAmount összeggel.</t>
+  </si>
+  <si>
+    <t>All in-ol és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Megadja az aktuális tétet és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Csekkol és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Bedobja a lapjait és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Emel 'raiseAmount' összeggel és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Vissza vásárolja magát és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Beszél 'comment' tartalommal és visszatér ennak a sikerességével.</t>
+  </si>
+  <si>
+    <t>Kilép a játékból.</t>
+  </si>
+  <si>
+    <t>Visszatér a botok számával. Ha 'onlyInGame' igaz, akkor csak a játékban lévő botokat, ha onlyInRound (is) igaz, akkor csak a menetben lévő botokat számolja.</t>
+  </si>
+  <si>
+    <t>Visszatér az 'nth'-ik jobbra ülő bot azonosítójával. Ha 'onlyInGame' igaz, akkor csak a játékban lévő botokat, ha onlyInRound (is) igaz, akkor csak a menetben lévő botokat veszi figyelembe.</t>
+  </si>
+  <si>
+    <t>Visszatér az 'nth'-ik balra ülő bot azonosítójával. Ha 'onlyInGame' igaz, akkor csak a játékban lévő botokat, ha onlyInRound (is) igaz, akkor csak a menetben lévő botokat veszi figyelembe.</t>
+  </si>
+  <si>
+    <t>Visszatér az aktuális téttel.</t>
+  </si>
+  <si>
+    <t>Visszatér a jelenleg eszközölhető minimális emelés értékével.</t>
+  </si>
+  <si>
+    <t>virtual void step();</t>
+  </si>
+  <si>
+    <t>virtual void rebuyOrLeave();</t>
+  </si>
+  <si>
+    <t>virtual void leave();</t>
+  </si>
+  <si>
+    <t>virtual void allined(int botID, int amount);</t>
+  </si>
+  <si>
+    <t>virtual void called(int botID, int amount);</t>
+  </si>
+  <si>
+    <t>virtual void checked(int botID);</t>
+  </si>
+  <si>
+    <t>virtual void folded(int botID);</t>
+  </si>
+  <si>
+    <t>virtual void raised(int botID, int amount);</t>
+  </si>
+  <si>
+    <t>virtual void rebuyOccurred(int botID, int amount);</t>
+  </si>
+  <si>
+    <t>virtual void leftGame(int botID);</t>
+  </si>
+  <si>
+    <t>virtual void listen(int botID, Comment comment);</t>
+  </si>
+  <si>
+    <t>virtual void roundStarted(int round);</t>
+  </si>
+  <si>
+    <t>virtual void blindsRaised(int newSmallBlind, int newBigBlind);</t>
+  </si>
+  <si>
+    <t>virtual void preflop();</t>
+  </si>
+  <si>
+    <t>virtual void flop();</t>
+  </si>
+  <si>
+    <t>virtual void turn();</t>
+  </si>
+  <si>
+    <t>virtual void river();</t>
+  </si>
+  <si>
+    <t>virtual void showdown();</t>
+  </si>
+  <si>
+    <t>virtual void roundWinners(int numOfWinners, const int* winners);</t>
+  </si>
+  <si>
+    <t>virtual void gameWinner(int botID);</t>
+  </si>
+  <si>
+    <t>virtual void rebuyDeadlineReached();</t>
+  </si>
+  <si>
+    <t>virtual void roundEnded();</t>
+  </si>
+  <si>
+    <t>int getBotID() const;</t>
+  </si>
+  <si>
+    <t>std::string getName() const;</t>
+  </si>
+  <si>
+    <t>BotLanguage getLang() const;</t>
+  </si>
+  <si>
+    <t>Emotion getBotEmotion(int botID) const;</t>
+  </si>
+  <si>
+    <t>std::string getBotName(int botID) const;</t>
+  </si>
+  <si>
+    <t>bool isBotDealer(int botID) const;</t>
+  </si>
+  <si>
+    <t>int getBotChips(int botID) const;</t>
+  </si>
+  <si>
+    <t>int getBotPot(int botID) const;</t>
+  </si>
+  <si>
+    <t>bool isBotHandRevealed(int botID) const;</t>
+  </si>
+  <si>
+    <t>BotLanguage getBotLang(int botID) const;</t>
+  </si>
+  <si>
+    <t>bool isBotInGame(int botID) const;</t>
+  </si>
+  <si>
+    <t>bool isBotInRound(bool botID) const;</t>
+  </si>
+  <si>
+    <t>Card lookAtBotHand(int botID, int cardIndex) const;</t>
+  </si>
+  <si>
+    <t>bool canTalk() const;</t>
+  </si>
+  <si>
+    <t>bool canStep() const;</t>
+  </si>
+  <si>
+    <t>bool canAllin() const;</t>
+  </si>
+  <si>
+    <t>bool canCall() const;</t>
+  </si>
+  <si>
+    <t>bool canCheck() const;</t>
+  </si>
+  <si>
+    <t>bool canFold() const;</t>
+  </si>
+  <si>
+    <t>bool canRaise(int raiseAmount) const;</t>
+  </si>
+  <si>
+    <t>bool canRebuy(int rebuyAmount) const;</t>
+  </si>
+  <si>
+    <t>bool allin();</t>
+  </si>
+  <si>
+    <t>bool call();</t>
+  </si>
+  <si>
+    <t>bool check();</t>
+  </si>
+  <si>
+    <t>bool fold();</t>
+  </si>
+  <si>
+    <t>bool raise(int raiseAmount);</t>
+  </si>
+  <si>
+    <t>bool rebuy(int rebuyAmount);</t>
+  </si>
+  <si>
+    <t>bool talk(Comment comment);</t>
+  </si>
+  <si>
+    <t>void quit();</t>
+  </si>
+  <si>
+    <t>int getNumOfBots(bool onlyInGame = false, bool onlyInRound = false) const;</t>
+  </si>
+  <si>
+    <t>int getBotIDByIndex(int index) const;</t>
+  </si>
+  <si>
+    <t>int getBotIndexByID(int botID) const;</t>
+  </si>
+  <si>
+    <t>int getBotIDToTheRight(int nth = 1, bool onlyInGame = false, bool onlyInRound = false) const;</t>
+  </si>
+  <si>
+    <t>int getBotIDToTheLeft(int nth = 1, bool onlyInGame = false, bool onlyInRound = false) const;</t>
+  </si>
+  <si>
+    <t>int getCallAmount() const;</t>
+  </si>
+  <si>
+    <t>int getMinRaise() const;</t>
+  </si>
+  <si>
+    <t>int getBigBlindAtRound(int round = -1) const; // -1 means current round</t>
+  </si>
+  <si>
+    <t>int getBlindShiftDeadline(int shiftDeadlineIndex) const;</t>
+  </si>
+  <si>
+    <t>int getNextBlindShiftDeadline() const;</t>
+  </si>
+  <si>
+    <t>int getSmallBlindAtRound(int round = -1) const; // -1 means current round</t>
+  </si>
+  <si>
+    <t>int getCurrentRound() const;</t>
+  </si>
+  <si>
+    <t>HandRank getHandRank() const;</t>
+  </si>
+  <si>
+    <t>int getTableNumOfCards() const;</t>
+  </si>
+  <si>
+    <t>Card getTableCard(int cardIndex) const;</t>
+  </si>
+  <si>
+    <t>int getPotSum() const;</t>
+  </si>
+  <si>
+    <t>int getBigBlind(int blindIndex) const;</t>
+  </si>
+  <si>
+    <t>int getRebuyDeadline() const;</t>
+  </si>
+  <si>
+    <t>int getSmallBlind(int blindIndex) const;</t>
+  </si>
+  <si>
+    <t>int getAllowedBotCalcTime() const;</t>
+  </si>
+  <si>
+    <t>int getStartingChips() const;</t>
+  </si>
+  <si>
+    <t>int getNumOfBlinds() const;</t>
+  </si>
+  <si>
+    <t>int getNumOfRebuysAllowed() const;</t>
+  </si>
+  <si>
+    <t>bool isTalkAllowed() const;</t>
+  </si>
+  <si>
+    <t>bool isEmotionAllowed() const;</t>
+  </si>
+  <si>
+    <t>bool isBotKnowledgeUseAllowed() const;</t>
+  </si>
+  <si>
+    <t>bool getKnowledgeTableData(int&amp; val, int tableID, int row, int col) const;</t>
+  </si>
+  <si>
+    <t>bool getKnowledgeTableData(bool&amp; val, int tableID, int row, int col) const;</t>
+  </si>
+  <si>
+    <t>bool getKnowledgeTableData(char&amp; val, int tableID, int row, int col) const;</t>
+  </si>
+  <si>
+    <t>bool getKnowledgeTableData(std::string&amp; val, int tableID, int row, int col) const;</t>
+  </si>
+  <si>
+    <t>bool getKnowledgeTableData(float&amp; val, int tableID, int row, int col) const;</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(int val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(bool val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(char val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(const char* val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(std::string val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>bool setKnowledgeTableData(float val, int tableID, int row, int col);</t>
+  </si>
+  <si>
+    <t>KnowledgeDataType getKnowledgeTableDataType(int tableID, int col) const;</t>
+  </si>
+  <si>
+    <t>int addKnowledgeTableRow(int tableID);</t>
+  </si>
+  <si>
+    <t>int createKnowledgeTable(int numOfCols, std::list&lt;KnowledgeDataType&gt; colTypes);</t>
+  </si>
+  <si>
+    <t>int getKnowledgeTableNumOfCols(int tableID) const;</t>
+  </si>
+  <si>
+    <t>int getKnowledgeTableNumOfRows(int tableID) const;</t>
+  </si>
+  <si>
+    <t>bool removeKnowledgeTable(int tableID);</t>
+  </si>
+  <si>
+    <t>bool removeKnowledgeTableRow(int tableID, int row);</t>
+  </si>
+  <si>
+    <t>bool isTableLoaded(int tableID) const;</t>
+  </si>
+  <si>
+    <t>Visszatér a 'round' sorszámú menetben aktuális nagyvakkal. Ha nem adjuk meg a round-ot, a jelenlegi nagyvakkal tér vissza.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'round' sorszámú menetben aktuális kisvakkal. Ha nem adjuk meg a round-ot, a jelenlegi kisvakkal tér vissza.</t>
+  </si>
+  <si>
+    <t>Visszatér a következő vak emelés menetszámával.</t>
+  </si>
+  <si>
+    <t>Visszatér az aktuális menetszámmal.</t>
+  </si>
+  <si>
+    <t>Visszatér az asztalon és a kézben lévő kártyák maximális rangjával. River előtt is használható.</t>
+  </si>
+  <si>
+    <t>Visszatér az asztalon lévő kártyák számával.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'shiftDeadlineIndex(0…numOfShifts-1)' sorszámú vak emelés menetszámával.</t>
+  </si>
+  <si>
+    <t>Visszatér a bot indexével (0…numOfBots-1), ami meghatározza, hogy az asztalnál hol ül.</t>
+  </si>
+  <si>
+    <t>Visszatér bot azonosítóval a bot indexe alapján. Az 'index (0…numOfBots-1)' az asztalnál ülés sorrendjét jelöli.</t>
+  </si>
+  <si>
+    <t>Visszatér az asztal 'cardIndex(0…tableNumOfCards-1)' indexű kártyával.</t>
+  </si>
+  <si>
+    <t>Visszatér az asztalon lévő összes potban lévő zseton értékével.</t>
   </si>
 </sst>
 </file>
@@ -988,1054 +1180,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="B90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="B91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="B93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="B98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="B99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>175</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mi_dev/to_table.xlsx
+++ b/docs/mi_dev/to_table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
   <si>
     <t>{</t>
   </si>
@@ -841,6 +841,51 @@
   </si>
   <si>
     <t>Visszatér az asztalon lévő összes potban lévő zseton értékével.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'blindIndex'-edik nagyvak értékével ami a játék során előfordulhat.</t>
+  </si>
+  <si>
+    <t>Visszatér az utolsó olyan menet sorszámával, amikor még a játékosok visszavásárólhatják magukat.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'blindIndex'-edik kisvak értékével ami a játék során előfordulhat.</t>
+  </si>
+  <si>
+    <t>Visszatér a bot felhasználható számolási idejével millisecben.</t>
+  </si>
+  <si>
+    <t>Visszatér a kezdő zseton mennyiséggel.</t>
+  </si>
+  <si>
+    <t>Visszatéra játék során előfordulható vakok számával.</t>
+  </si>
+  <si>
+    <t>Visszatér a megengedett visszavásárlások számával / játékos.</t>
+  </si>
+  <si>
+    <t>Igazzal tér vissza, ha a beszélgetés engedélyezett, hamissal egyébként.</t>
+  </si>
+  <si>
+    <t>Igazzal tér vissza, ha az érzelem kifejezés engedélyezett, hamissal egyébként.</t>
+  </si>
+  <si>
+    <t>Igazzal tér vissza, ha a bot knowledge permanens tudástár rendelkezésére áll a botoknak, hamissal egyébként.</t>
+  </si>
+  <si>
+    <t>Egy 'int' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Egy 'bool' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Egy 'char' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Egy 'std::string' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Egy 'float' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,53 +1949,83 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="B101" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="B102" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>237</v>
       </c>
+      <c r="B103" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>241</v>
       </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>242</v>
       </c>
+      <c r="B108" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>243</v>
       </c>
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>244</v>
       </c>
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -1961,73 +2036,88 @@
       <c r="A112" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>259</v>
       </c>

--- a/docs/mi_dev/to_table.xlsx
+++ b/docs/mi_dev/to_table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
   <si>
     <t>{</t>
   </si>
@@ -886,14 +886,65 @@
   </si>
   <si>
     <t>Egy 'float' típusú értéket kiemel a permanens tudástárból és a 'val' változóba helyezi. Az értéket a 'tableID' táblában, 'row' sorban, 'col' oszlopból veszi. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'tableID' tudástár tábla 'col' oszlopának adat típusával (int, float, stb.).</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'int' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'bool' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'char' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'const char*' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'std::string' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>A tudástár 'tableID'  táblájában a 'row' sorában, 'col oszlopában felülírja az 'float' típusú értéket a 'val' értékével. Visszatér a művelet sikerességével.</t>
+  </si>
+  <si>
+    <t>Hozzáad a 'tableID' táblához egy sort és visszaadja annak (azonosító) számát. Az azonosító a sorok felvevésének sorrendjében növekszik.</t>
+  </si>
+  <si>
+    <t>Létrehoz egy tudástár táblát 'numOfCols' oszloppal, és a 'colTypes' oszlop adattípusokkal. Visszatér a tábla azonosító számával.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'tableID' tudástár tábla oszlopainak számával.</t>
+  </si>
+  <si>
+    <t>Visszatér a 'tableID' tudástár tábla sorainak számával.</t>
+  </si>
+  <si>
+    <t>Permanensen eltávolítja a tudástár 'tableID' azonosítójú tábláját. A művelet sikerességével tér vissza.</t>
+  </si>
+  <si>
+    <t>Permanensen eltávolítja a tudástár 'tableID' táblájának 'row' azonosítójú sorát. A művelet sikerességével tér vissza.</t>
+  </si>
+  <si>
+    <t>Megadja, hogy a 'tableID' azonosítójú tábla, be van-e töltve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -922,8 +973,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1227,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,16 +1289,16 @@
     <col min="2" max="2" width="92.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1450,21 +1502,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1488,8 +1540,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2076,123 +2128,165 @@
       <c r="A118" t="s">
         <v>250</v>
       </c>
+      <c r="B118" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>251</v>
       </c>
+      <c r="B119" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
+      <c r="B120" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>253</v>
       </c>
+      <c r="B121" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>254</v>
       </c>
+      <c r="B122" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>255</v>
       </c>
+      <c r="B123" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>257</v>
       </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>258</v>
       </c>
+      <c r="B127" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -2544,6 +2638,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
